--- a/database/industries/ravankar/shaspa/product/yearly_seprated.xlsx
+++ b/database/industries/ravankar/shaspa/product/yearly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72007696-5448-4CD6-999F-0BC0B98E608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DB66DB-C837-415D-B07D-2B722621FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/ravankar/shaspa/product/yearly_seprated.xlsx
+++ b/database/industries/ravankar/shaspa/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551115C5-5C37-42CC-8CF8-14A55318FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E0E088-CE78-49D9-A633-55093358B028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -676,12 +676,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -691,7 +691,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -725,7 +725,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -759,7 +759,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -781,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -791,7 +791,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -851,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -875,7 +875,7 @@
         <v>77494</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -899,7 +899,7 @@
         <v>7477</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -923,7 +923,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -947,7 +947,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -971,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -995,7 +995,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>66577</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>51840</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>24842</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>8151</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>17268</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>271411</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>190880</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>14142</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>24991</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>10727</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>190400</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>431851</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>33</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>34</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>35</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>703262</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1619,7 +1619,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1629,7 +1629,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1671,7 +1671,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>37</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>15</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>16746217</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>16</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1418371</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>17</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>166365</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>18</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>543388</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>20</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>3295595</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>21</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>16024622</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>22</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>16774863</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>23</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>7002147</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>2531905</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>25</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1379067</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>26</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>27</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>65882540</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>39</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>15</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>40149998</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>2613600</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>19</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>5035488</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>21</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>172600</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>2417718</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>23</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>10895</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>24</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>15694621</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>29</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>66094920</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>40</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>31</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>11</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>33</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>34</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>35</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>131977460</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2501,7 +2501,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2511,7 +2511,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2521,7 +2521,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>41</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2553,7 +2553,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>42</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>14</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>216096949</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>189697873</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>230742025</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>18</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>320205068</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>20</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>214780696</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>21</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>240693062</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>323589178</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>23</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>281867281</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>24</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>310625077</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>25</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>79862578</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>44</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>14</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>15</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>210341565</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>16</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>184811201</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>19</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>20</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>201492057</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>258383234</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>22</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>225386222</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>23</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>253372093</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>24</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>25</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>82429732</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>45</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>11</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3223,7 +3223,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3233,7 +3233,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3243,7 +3243,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>46</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3275,7 +3275,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>47</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>14</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>15</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>-10774038</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>16</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>-956993</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>17</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>-149849</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>18</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>-378286</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>19</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>20</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>-1817842</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>21</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>-15568346</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>22</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>-13320934</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>23</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>-5433619</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>24</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>-1745388</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>25</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>-1055101</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>26</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
         <v>48</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>-51200396</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>49</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>14</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
         <v>15</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>-26061751</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>16</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>-1872994</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="12" t="s">
         <v>19</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>20</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>-3620050</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="12" t="s">
         <v>21</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>-136531</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>22</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>-1818415</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
         <v>23</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>-9732</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>24</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="12" t="s">
         <v>25</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>-11636503</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>26</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="16" t="s">
         <v>50</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>-45155976</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>51</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>11</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="16" t="s">
         <v>52</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="14" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="16" t="s">
         <v>33</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="14" t="s">
         <v>34</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="16" t="s">
         <v>35</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>-96356372</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4105,7 +4105,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4115,7 +4115,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4125,7 +4125,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>53</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4157,7 +4157,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>54</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>11</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>14</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>15</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>5972179</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>16</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>461378</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>17</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>16516</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="12" t="s">
         <v>18</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>165102</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>19</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="12" t="s">
         <v>20</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>1477753</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>21</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>456276</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="12" t="s">
         <v>22</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>3453929</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>23</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>1568528</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="12" t="s">
         <v>24</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>786517</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>25</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>323966</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="12" t="s">
         <v>26</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>55</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>14682144</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>56</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>14</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="12" t="s">
         <v>15</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>14088247</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>16</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>740606</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="12" t="s">
         <v>19</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>20</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1415438</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="12" t="s">
         <v>21</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>22</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>599303</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="12" t="s">
         <v>23</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>24</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="12" t="s">
         <v>25</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>4058118</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>26</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="16" t="s">
         <v>57</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>20938944</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>58</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>11</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="16" t="s">
         <v>59</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="14" t="s">
         <v>35</v>
       </c>
